--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
     <sheet name="21 02 2017" sheetId="2" r:id="rId2"/>
     <sheet name="22 02 2017" sheetId="1" r:id="rId3"/>
+    <sheet name="23 02 2017" sheetId="7" r:id="rId4"/>
+    <sheet name="24 02 2017" sheetId="8" r:id="rId5"/>
+    <sheet name="27 02 2017" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>Critère</t>
   </si>
@@ -227,20 +230,6 @@
   </si>
   <si>
     <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ignal crosse au dessus de MACD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>R</t>
     </r>
     <r>
@@ -321,12 +310,198 @@
     <t>MA5 juste croisse au dessus de MA20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ours entre bSup et bInf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ien</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A5 croisse au dessus de MA20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SI proche de 50</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ours entre bSup et bInf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ignal croisse au dessus de MACD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ignal croisse au dessus de MACD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD au dessus du signal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>j &gt; 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5 chute et touche MA20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal chute et touche MACD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSI proche de 30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>k, d, j compris entre 20 et 80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA5 croisse au dessous de MA20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal est au dessus de MACD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSI proche de 60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -337,15 +512,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -370,6 +548,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -402,10 +586,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -427,9 +612,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -743,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,7 +985,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.30220000000000002</v>
+        <v>0.17810000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,11 +1037,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.47</v>
+        <v>-0.26</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9899999999999999E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -938,7 +1137,7 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -958,7 +1157,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -977,8 +1176,8 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -998,7 +1197,7 @@
         <v>0.06</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1151,7 +1350,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1392,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.24380000000000002</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,11 +1444,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1345,7 +1544,7 @@
         <v>-0.2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1365,7 +1564,7 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1385,7 +1584,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1405,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1445,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1558,7 +1757,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1600,7 +1799,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>9.3700000000000033E-2</v>
+        <v>0.11070000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,11 +1851,11 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.28000000000000003</v>
+        <v>-0.18</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.760000000000001E-2</v>
+        <v>-3.0600000000000002E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1791,8 +1990,8 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1812,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1852,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1867,13 +2066,13 @@
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>0.2</v>
       </c>
       <c r="C20" s="7">
         <v>0.52</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <f t="shared" ref="D20:D24" si="2">B20*C20</f>
         <v>0.10400000000000001</v>
       </c>
@@ -1885,13 +2084,13 @@
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>0.2</v>
       </c>
       <c r="C21" s="7">
         <v>-0.44</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <f t="shared" si="2"/>
         <v>-8.8000000000000009E-2</v>
       </c>
@@ -1903,13 +2102,13 @@
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>0.2</v>
       </c>
       <c r="C22" s="7">
         <v>0.44</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <f t="shared" si="2"/>
         <v>8.8000000000000009E-2</v>
       </c>
@@ -1921,13 +2120,13 @@
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>0.2</v>
       </c>
       <c r="C23" s="8">
         <v>0.44</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <f t="shared" si="2"/>
         <v>8.8000000000000009E-2</v>
       </c>
@@ -1939,19 +2138,1249 @@
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>0.2</v>
       </c>
       <c r="C24" s="8">
         <v>0.68</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <f t="shared" si="2"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.22720000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.77</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.13090000000000002</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>7.010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>-0.1125</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.64</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-0.5</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.16720000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.47</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.17810000000000004</v>
+        <v>0.26310000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.26</v>
+        <v>0.24</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4200000000000003E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1392,7 +1392,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.1197</v>
+        <v>-8.77E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.27</v>
+        <v>-0.95</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5900000000000003E-2</v>
+        <v>-0.1615</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1799,7 +1799,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11070000000000003</v>
+        <v>3.2500000000000029E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.18</v>
+        <v>-0.64</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0600000000000002E-2</v>
+        <v>-0.10880000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2163,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2209,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.22720000000000001</v>
+        <v>0.24420000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,11 +2261,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.13090000000000002</v>
+        <v>0.1479</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2619,7 +2619,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>7.010000000000001E-2</v>
+        <v>-0.1492</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,11 +2671,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.10880000000000001</v>
+        <v>-0.11050000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3029,7 +3029,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.16720000000000002</v>
+        <v>-6.9100000000000009E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,11 +3081,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.47</v>
+        <v>-0.92</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>7.9899999999999999E-2</v>
+        <v>-0.15640000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\俊阳\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,20 @@
     <sheet name="23 02 2017" sheetId="7" r:id="rId4"/>
     <sheet name="24 02 2017" sheetId="8" r:id="rId5"/>
     <sheet name="27 02 2017" sheetId="9" r:id="rId6"/>
+    <sheet name="28 02 2017" sheetId="11" r:id="rId7"/>
+    <sheet name="01 03 2017" sheetId="12" r:id="rId8"/>
+    <sheet name="02 03 2017" sheetId="13" r:id="rId9"/>
+    <sheet name="03 03 2017" sheetId="14" r:id="rId10"/>
+    <sheet name="06 03 2017" sheetId="15" r:id="rId11"/>
+    <sheet name="07 03 2017" sheetId="16" r:id="rId12"/>
+    <sheet name="08 03 2017" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="79">
   <si>
     <t>Critère</t>
   </si>
@@ -494,6 +501,30 @@
   </si>
   <si>
     <t>RSI proche de 60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15h20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15h26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15h45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16h20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -946,9 +977,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,10 +1016,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.26310000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.23080000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1059,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1037,17 +1068,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1056,7 +1087,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1065,7 +1096,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1074,7 +1105,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1083,7 +1114,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1133,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1153,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1173,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1193,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1213,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1233,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1211,7 +1242,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1220,7 +1251,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1229,7 +1260,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1279,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1297,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1315,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1333,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1351,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1342,6 +1373,1602 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.15</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-2.5500000000000002E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.76</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.24380000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.3</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-5.1000000000000004E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1353,9 +2980,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +3001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1392,10 +3019,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-8.77E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +3043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +3062,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1444,17 +3071,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.95</v>
+        <v>-0.09</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1615</v>
+        <v>-1.5300000000000001E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1463,7 +3090,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1472,7 +3099,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1481,7 +3108,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1490,7 +3117,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +3136,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +3156,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +3176,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +3196,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +3216,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1609,7 +3236,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1618,7 +3245,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1627,7 +3254,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1636,7 +3263,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1655,7 +3282,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1673,7 +3300,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +3318,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1709,7 +3336,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1727,7 +3354,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1760,9 +3387,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +3408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,10 +3426,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>3.2500000000000029E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.28750000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +3450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +3469,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1851,17 +3478,17 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.64</v>
+        <v>0.86</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10880000000000001</v>
+        <v>0.1462</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1870,7 +3497,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1879,7 +3506,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1888,7 +3515,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1897,7 +3524,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +3543,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +3563,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +3583,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +3603,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1996,7 +3623,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +3643,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2025,7 +3652,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2034,7 +3661,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2043,7 +3670,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +3689,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +3707,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2098,7 +3725,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2116,7 +3743,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +3761,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2163,16 +3790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +3818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2209,10 +3836,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.24420000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-3.9999999999999897E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +3860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +3879,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2261,17 +3888,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.87</v>
+        <v>-0.59</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.1479</v>
+        <v>-0.1003</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2280,7 +3907,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2289,7 +3916,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2298,7 +3925,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2307,7 +3934,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +3953,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +3973,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2366,7 +3993,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +4013,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +4033,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2426,7 +4053,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2435,7 +4062,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2444,7 +4071,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2453,7 +4080,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +4099,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2490,7 +4117,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2508,7 +4135,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +4153,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +4171,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2577,12 +4204,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +4228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2619,10 +4246,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-0.1492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-9.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +4270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +4289,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2671,17 +4298,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.65</v>
+        <v>-0.36</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.11050000000000001</v>
+        <v>-6.1200000000000004E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2690,7 +4317,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2699,7 +4326,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2708,7 +4335,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2717,7 +4344,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +4363,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +4383,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +4403,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +4423,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2816,7 +4443,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +4463,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2845,7 +4472,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2854,7 +4481,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2863,7 +4490,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2882,7 +4509,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2900,7 +4527,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +4545,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2936,7 +4563,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +4581,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2984,15 +4611,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A24"/>
+      <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +4638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -3019,20 +4646,20 @@
         <v>0.38</v>
       </c>
       <c r="C2" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="21">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-6.9100000000000009E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.46050000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +4680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +4699,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -3081,17 +4708,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.92</v>
+        <v>-0.04</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.15640000000000001</v>
+        <v>-6.8000000000000005E-3</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3100,7 +4727,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3109,7 +4736,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3118,7 +4745,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3127,7 +4754,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3146,7 +4773,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -3166,7 +4793,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -3186,7 +4813,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +4833,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +4853,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +4873,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3255,7 +4882,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3264,7 +4891,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3273,7 +4900,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3292,7 +4919,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3310,7 +4937,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3328,7 +4955,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +4973,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3364,7 +4991,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3385,6 +5012,1203 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-5.5400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.76</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-0.12920000000000001</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\俊阳\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.he.12\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7410" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="103">
   <si>
     <t>Critère</t>
   </si>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MA5 juste croisse au dessus de MA20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -527,12 +523,87 @@
     <t>16h20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">La courbe du boullinger est fixé entre la haussière et la baissière </t>
+  </si>
+  <si>
+    <t>k,d,j entre 20 et 80</t>
+  </si>
+  <si>
+    <t>MA5 croise au dessus de MA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le RSI proche de la ligne 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La courbe entre la haussière et la baissière </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k au dessus des autres courbes </t>
+  </si>
+  <si>
+    <t>MA20 au dessus de MA5</t>
+  </si>
+  <si>
+    <t>Le RSI proche de la ligne 50</t>
+  </si>
+  <si>
+    <t>K au dessus des courbes</t>
+  </si>
+  <si>
+    <t>MA5 juste croisse au dessus de MA20</t>
+  </si>
+  <si>
+    <t>LE RSI proche de la ligne 50</t>
+  </si>
+  <si>
+    <t>j&lt;0</t>
+  </si>
+  <si>
+    <t>Le RSI proche de la ligne 60</t>
+  </si>
+  <si>
+    <t>La courbe entre la haussière et la baissière</t>
+  </si>
+  <si>
+    <t>les courbes entre 20 et 80</t>
+  </si>
+  <si>
+    <t>MA5 est au dessus de MA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD reste au dessus du signal </t>
+  </si>
+  <si>
+    <t>LE RSI proche de la ligne 70</t>
+  </si>
+  <si>
+    <t>j&gt;100</t>
+  </si>
+  <si>
+    <t>MA5 reste au dessus du MA20</t>
+  </si>
+  <si>
+    <t>Le signal est au dessus du MACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD au dessus du signal </t>
+  </si>
+  <si>
+    <t>Le signal reste au dessus du MACD</t>
+  </si>
+  <si>
+    <t>le RSI proche de la ligne 50</t>
+  </si>
+  <si>
+    <t>Le RSI est proche de la ligne 70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,7 +729,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -974,12 +1045,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1016,10 +1087,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.23080000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.22570000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1130,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1068,17 +1139,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5000000000000006E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1087,7 +1158,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1096,7 +1167,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1105,7 +1176,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1114,7 +1185,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1204,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1224,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1244,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1187,13 +1258,13 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1208,12 +1279,12 @@
         <v>0.2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1304,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1242,7 +1313,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1251,7 +1322,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1260,7 +1331,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1350,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1368,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1386,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1404,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1422,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1380,16 +1451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1426,10 +1497,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>4.8300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.10290000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -1438,19 +1509,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1540,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1478,17 +1549,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.15</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-2.5500000000000002E-2</v>
+        <v>-9.69E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1497,7 +1568,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1506,7 +1577,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1515,7 +1586,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1524,7 +1595,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1614,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1555,13 +1626,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1569,17 +1642,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1587,17 +1662,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1605,17 +1682,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1623,17 +1702,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1642,7 +1723,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1651,7 +1732,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1660,7 +1741,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1760,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1778,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1796,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1814,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1832,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1779,16 +1860,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1825,10 +1906,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.11060000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -1837,19 +1918,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1949,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1877,17 +1958,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.76</v>
+        <v>-0.26</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.12920000000000001</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1896,7 +1977,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1905,7 +1986,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1914,7 +1995,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1923,7 +2004,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +2023,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1954,13 +2035,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1974,11 +2057,13 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1986,17 +2071,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2010,11 +2097,13 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2022,17 +2111,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2041,7 +2132,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2050,7 +2141,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2059,7 +2150,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2169,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2187,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2205,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2223,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2241,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2178,16 +2269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2224,10 +2315,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.24380000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-1.7600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2236,19 +2327,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2358,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2276,17 +2367,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>1</v>
+        <v>-0.67</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.17</v>
+        <v>-0.11390000000000002</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2295,7 +2386,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2304,7 +2395,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2313,7 +2404,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2322,7 +2413,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2432,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2353,13 +2444,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2367,17 +2460,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2385,17 +2480,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2403,17 +2500,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2427,11 +2526,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2440,7 +2541,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2449,7 +2550,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2458,7 +2559,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2578,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2596,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2513,7 +2614,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2531,7 +2632,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2549,7 +2650,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2578,15 +2679,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2623,10 +2724,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>2.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.19240000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2635,19 +2736,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2666,7 +2767,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2675,17 +2776,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-5.1000000000000004E-2</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2694,7 +2795,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2703,7 +2804,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2712,7 +2813,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2721,7 +2822,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2841,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2752,13 +2853,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2766,17 +2869,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2784,17 +2889,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2802,17 +2909,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2820,17 +2929,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2839,7 +2950,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2848,7 +2959,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2857,7 +2968,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2876,7 +2987,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2894,7 +3005,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2912,7 +3023,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,7 +3041,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +3059,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2980,9 +3091,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3019,10 +3130,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>5.8500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.4300000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3062,7 +3173,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3071,17 +3182,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.09</v>
+        <v>-0.35</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5300000000000001E-2</v>
+        <v>-5.9499999999999997E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3090,7 +3201,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3099,7 +3210,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3108,7 +3219,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3117,7 +3228,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3247,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3267,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3287,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3307,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3327,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3347,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3245,7 +3356,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3254,7 +3365,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3263,7 +3374,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3393,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3411,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3429,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3447,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3354,7 +3465,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3387,9 +3498,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,10 +3537,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.28750000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.29940000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3450,7 +3561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3580,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3478,17 +3589,17 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1462</v>
+        <v>0.15810000000000002</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3497,7 +3608,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3506,7 +3617,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3515,7 +3626,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3524,7 +3635,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3654,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3563,7 +3674,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3694,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3603,7 +3714,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3618,12 +3729,12 @@
         <v>0.2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3643,7 +3754,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3652,7 +3763,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3661,7 +3772,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3670,7 +3781,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3800,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3707,7 +3818,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3725,7 +3836,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3743,7 +3854,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3761,7 +3872,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3794,12 +3905,12 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3807,18 +3918,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -3836,10 +3947,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-3.9999999999999897E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -3857,10 +3968,10 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -3879,7 +3990,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -3888,17 +3999,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.59</v>
+        <v>0.09</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.1003</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3907,7 +4018,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3916,7 +4027,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3925,7 +4036,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3934,7 +4045,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3942,18 +4053,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -3968,12 +4079,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -3988,12 +4099,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4008,12 +4119,12 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4028,12 +4139,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4048,12 +4159,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4062,7 +4173,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4071,7 +4182,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4080,7 +4191,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4099,7 +4210,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4117,7 +4228,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4135,7 +4246,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4153,7 +4264,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4171,7 +4282,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -4204,12 +4315,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4217,18 +4328,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -4246,10 +4357,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-9.9900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -4267,10 +4378,10 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -4289,7 +4400,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -4298,17 +4409,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.36</v>
+        <v>0.73</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-6.1200000000000004E-2</v>
+        <v>0.1241</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4317,7 +4428,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4326,7 +4437,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4335,7 +4446,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4344,7 +4455,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4352,18 +4463,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -4378,12 +4489,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -4398,12 +4509,12 @@
         <v>-0.2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4418,12 +4529,12 @@
         <v>-0.2</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4438,12 +4549,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4458,12 +4569,12 @@
         <v>-0.1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4472,7 +4583,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4481,7 +4592,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4490,7 +4601,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4509,7 +4620,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4527,7 +4638,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4545,7 +4656,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4563,7 +4674,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4581,7 +4692,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -4614,12 +4725,12 @@
       <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4630,15 +4741,15 @@
         <v>22</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -4656,10 +4767,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.46050000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.46900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -4677,10 +4788,10 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -4699,7 +4810,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -4708,17 +4819,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-6.8000000000000005E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4727,7 +4838,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4736,7 +4847,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4745,7 +4856,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4754,7 +4865,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4768,12 +4879,12 @@
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -4788,12 +4899,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -4808,12 +4919,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4828,12 +4939,12 @@
         <v>-0.1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4848,12 +4959,12 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4868,12 +4979,12 @@
         <v>0.06</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4882,7 +4993,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4891,7 +5002,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4900,7 +5011,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4919,7 +5030,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4937,7 +5048,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4955,7 +5066,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4973,7 +5084,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4991,7 +5102,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5021,15 +5132,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5048,7 +5159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5066,10 +5177,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-5.5400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.6500000000000031E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -5078,19 +5189,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>6.7500000000000018E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -5109,7 +5220,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -5118,17 +5229,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.76</v>
+        <v>-0.44</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.12920000000000001</v>
+        <v>-7.4800000000000005E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -5137,7 +5248,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5146,7 +5257,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5155,7 +5266,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5164,7 +5275,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5294,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -5195,13 +5306,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -5215,11 +5328,13 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -5227,17 +5342,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -5245,17 +5362,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -5269,11 +5388,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5282,7 +5403,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5291,7 +5412,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5300,7 +5421,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +5440,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -5337,7 +5458,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5355,7 +5476,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5373,7 +5494,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5391,7 +5512,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5419,16 +5540,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5447,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5465,10 +5586,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>7.8899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.28190000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -5477,19 +5598,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -5508,7 +5629,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -5517,17 +5638,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.03</v>
+        <v>0.88</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>5.1000000000000004E-3</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -5536,7 +5657,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5545,7 +5666,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5554,7 +5675,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5563,7 +5684,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5582,7 +5703,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -5594,13 +5715,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -5608,17 +5731,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -5626,17 +5751,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -5650,11 +5777,13 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -5668,11 +5797,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5681,7 +5812,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5690,7 +5821,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5699,7 +5830,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -5718,7 +5849,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -5736,7 +5867,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5754,7 +5885,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5772,7 +5903,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5790,7 +5921,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5818,16 +5949,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
+    <col min="1" max="16384" width="14.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +5977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5864,10 +5995,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.15540000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -5876,19 +6007,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -5907,7 +6038,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -5916,17 +6047,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>8.1600000000000006E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -5935,7 +6066,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5944,7 +6075,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5953,7 +6084,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5962,7 +6093,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +6112,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -5993,13 +6124,15 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -6007,17 +6140,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -6025,17 +6160,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -6043,17 +6180,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -6067,11 +6206,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -6080,7 +6221,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -6089,7 +6230,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6098,7 +6239,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -6117,7 +6258,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -6135,7 +6276,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -6153,7 +6294,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -6171,7 +6312,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -6189,7 +6330,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.he.12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\extSD\gitRes\StockChooser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="9600" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -19,19 +19,25 @@
     <sheet name="24 02 2017" sheetId="8" r:id="rId5"/>
     <sheet name="27 02 2017" sheetId="9" r:id="rId6"/>
     <sheet name="28 02 2017" sheetId="11" r:id="rId7"/>
-    <sheet name="01 03 2017" sheetId="12" r:id="rId8"/>
-    <sheet name="02 03 2017" sheetId="13" r:id="rId9"/>
-    <sheet name="03 03 2017" sheetId="14" r:id="rId10"/>
-    <sheet name="06 03 2017" sheetId="15" r:id="rId11"/>
-    <sheet name="07 03 2017" sheetId="16" r:id="rId12"/>
-    <sheet name="08 03 2017" sheetId="17" r:id="rId13"/>
+    <sheet name="Feuil1" sheetId="18" r:id="rId8"/>
+    <sheet name="01 03 2017" sheetId="12" r:id="rId9"/>
+    <sheet name="02 03 2017" sheetId="13" r:id="rId10"/>
+    <sheet name="03 03 2017" sheetId="14" r:id="rId11"/>
+    <sheet name="06 03 2017" sheetId="15" r:id="rId12"/>
+    <sheet name="07 03 2017" sheetId="16" r:id="rId13"/>
+    <sheet name="08 03 2017" sheetId="17" r:id="rId14"/>
+    <sheet name="09 03 2017" sheetId="19" r:id="rId15"/>
+    <sheet name="10 03 2017" sheetId="20" r:id="rId16"/>
+    <sheet name="13 03 2017" sheetId="21" r:id="rId17"/>
+    <sheet name="14 03 2017" sheetId="22" r:id="rId18"/>
+    <sheet name="15 03 2017" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="104">
   <si>
     <t>Critère</t>
   </si>
@@ -598,12 +604,15 @@
   <si>
     <t>Le RSI est proche de la ligne 70</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -729,7 +738,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1048,9 +1057,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1087,10 +1096,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.22570000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.32090000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1139,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1139,17 +1148,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.02</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4000000000000002E-3</v>
+        <v>9.8600000000000007E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1158,7 +1167,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1167,7 +1176,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1176,7 +1185,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1185,7 +1194,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1213,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1233,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1253,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1273,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1293,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1313,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1313,7 +1322,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1322,7 +1331,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1331,7 +1340,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1359,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1377,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1395,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1413,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1431,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1455,12 +1464,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1497,10 +1506,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.10290000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>1.3500000000000012E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -1509,19 +1518,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.56000000000000005</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0.12600000000000003</v>
+        <v>0.108</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1549,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1549,17 +1558,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.99</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-9.69E-2</v>
+        <v>-0.16830000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1568,7 +1577,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1577,7 +1586,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1586,7 +1595,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1595,7 +1604,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1623,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1635,7 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0.1</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>82</v>
@@ -1634,7 +1643,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1642,19 +1651,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1662,11 +1671,11 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0.1</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>87</v>
@@ -1674,7 +1683,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1703,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1702,19 +1711,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1723,7 +1732,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1732,7 +1741,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1741,7 +1750,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1769,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1787,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1805,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1823,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1841,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1861,15 +1870,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -1906,10 +1915,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11060000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.15730000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -1918,11 +1927,11 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.36000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>8.1000000000000016E-2</v>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -1930,7 +1939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1958,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1958,17 +1967,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-4.4200000000000003E-2</v>
+        <v>-4.2500000000000003E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1977,7 +1986,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1986,7 +1995,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1995,7 +2004,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2004,7 +2013,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2032,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2038,12 +2047,12 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2051,19 +2060,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2078,12 +2087,12 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2091,19 +2100,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2111,19 +2120,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0.16000000000000003</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2132,7 +2141,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2141,7 +2150,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2150,7 +2159,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2178,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2196,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2214,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2232,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2241,7 +2250,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2270,15 +2279,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2315,10 +2324,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-1.7600000000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>1.5400000000000025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2327,19 +2336,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.1</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>2.2500000000000003E-2</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2367,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2367,17 +2376,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.67</v>
+        <v>-0.82</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.11390000000000002</v>
+        <v>-0.1394</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2386,7 +2395,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2395,7 +2404,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2404,7 +2413,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2413,7 +2422,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2432,7 +2441,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2461,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2460,19 +2469,19 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2487,12 +2496,12 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2500,19 +2509,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2520,19 +2529,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2541,7 +2550,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2550,7 +2559,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2559,7 +2568,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2578,7 +2587,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2605,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2623,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2632,7 +2641,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2659,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2678,16 +2687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -2724,10 +2733,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.19240000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -2736,19 +2745,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>5.3999999999999999E-2</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2776,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2776,17 +2785,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>6.4600000000000005E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2795,7 +2804,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2804,7 +2813,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2813,7 +2822,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2822,7 +2831,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2850,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2870,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2890,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -2901,7 +2910,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -2921,7 +2930,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -2929,19 +2938,19 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0.13999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2950,7 +2959,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2959,7 +2968,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2968,7 +2977,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +2996,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3005,7 +3014,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3032,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3041,7 +3050,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3068,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3076,6 +3085,2585 @@
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.1244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.02</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-3.4000000000000002E-3</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>0.1207</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.44</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.24</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-4.0800000000000003E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.11630000000000001</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-1.6300000000000009E-2</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.53</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-9.0100000000000013E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3091,9 +5679,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,10 +5718,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.4300000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.12310000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3154,7 +5742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +5761,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3182,17 +5770,17 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9499999999999997E-2</v>
+        <v>4.9300000000000004E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3201,7 +5789,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3210,7 +5798,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3219,7 +5807,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3228,7 +5816,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +5835,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +5855,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +5875,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3307,7 +5895,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +5915,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3347,7 +5935,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3356,7 +5944,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3365,7 +5953,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3374,7 +5962,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +5981,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +5999,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3429,7 +6017,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +6035,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3465,7 +6053,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3498,9 +6086,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +6107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,10 +6125,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.29940000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>1.2100000000000027E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +6149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +6168,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3589,17 +6177,17 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.93</v>
+        <v>-0.76</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15810000000000002</v>
+        <v>-0.12920000000000001</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3608,7 +6196,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3617,7 +6205,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3626,7 +6214,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3635,7 +6223,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +6242,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3674,7 +6262,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3694,7 +6282,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3714,7 +6302,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +6322,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3754,7 +6342,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3763,7 +6351,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3772,7 +6360,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3781,7 +6369,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +6388,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3818,7 +6406,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +6424,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3854,7 +6442,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +6460,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3905,12 +6493,12 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +6517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -3947,10 +6535,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.1116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>1.8100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -3971,7 +6559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -3990,7 +6578,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -3999,17 +6587,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.09</v>
+        <v>-0.46</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>1.5300000000000001E-2</v>
+        <v>-7.8200000000000006E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4018,7 +6606,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4027,7 +6615,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4036,7 +6624,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4045,7 +6633,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4064,7 +6652,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -4084,7 +6672,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -4104,7 +6692,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +6712,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4144,7 +6732,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +6752,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4173,7 +6761,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4182,7 +6770,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4191,7 +6779,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4210,7 +6798,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4228,7 +6816,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4246,7 +6834,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4264,7 +6852,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +6870,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -4315,12 +6903,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +6927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -4357,10 +6945,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>8.5400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.11770000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -4381,7 +6969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -4400,7 +6988,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -4409,17 +6997,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.1241</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4428,7 +7016,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4437,7 +7025,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4446,7 +7034,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4455,7 +7043,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +7062,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -4494,7 +7082,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -4514,7 +7102,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4534,7 +7122,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +7142,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4574,7 +7162,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4583,7 +7171,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4592,7 +7180,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4601,7 +7189,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4620,7 +7208,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4638,7 +7226,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4656,7 +7244,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4674,7 +7262,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4692,7 +7280,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -4725,12 +7313,12 @@
       <selection activeCell="G27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +7337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -4767,10 +7355,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.46900000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +7379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -4810,7 +7398,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -4819,17 +7407,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.01</v>
+        <v>-0.84</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>1.7000000000000001E-3</v>
+        <v>-0.14280000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4838,7 +7426,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4847,7 +7435,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4856,7 +7444,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4865,7 +7453,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4884,7 +7472,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -4904,7 +7492,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -4924,7 +7512,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4944,7 +7532,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -4964,7 +7552,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4984,7 +7572,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4993,7 +7581,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5002,7 +7590,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5011,7 +7599,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +7618,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -5048,7 +7636,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5066,7 +7654,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5084,7 +7672,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5102,7 +7690,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5135,12 +7723,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5159,7 +7747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5177,10 +7765,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>6.6500000000000031E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>3.7600000000000036E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +7789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +7808,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -5229,17 +7817,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.44</v>
+        <v>-0.61</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-7.4800000000000005E-2</v>
+        <v>-0.1037</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -5248,7 +7836,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5257,7 +7845,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5266,7 +7854,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5275,7 +7863,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5294,7 +7882,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -5314,7 +7902,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -5334,7 +7922,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -5354,7 +7942,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -5374,7 +7962,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -5394,7 +7982,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5403,7 +7991,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5412,7 +8000,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5421,7 +8009,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -5440,7 +8028,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -5458,7 +8046,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5476,7 +8064,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5494,7 +8082,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5512,7 +8100,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5533,413 +8121,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="21">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.28190000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="21">
-        <f>SUM(D11:D15)</f>
-        <v>0.26</v>
-      </c>
-      <c r="D3" s="21">
-        <f>B3*C3</f>
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="21">
-        <f>SUM(D20:D24)</f>
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D4" s="21">
-        <f>B4*C4</f>
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="21">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.88</v>
-      </c>
-      <c r="D5" s="21">
-        <f ca="1">B5*C5</f>
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <f>B11*C13</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="21">
-        <f>B12*C12</f>
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="21">
-        <f>B13*C13</f>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-0.44</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>-8.8000000000000009E-2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5953,12 +8146,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.42578125" style="17"/>
+    <col min="1" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5977,7 +8170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
@@ -5995,10 +8188,10 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.30249999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -6007,19 +8200,19 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0.108</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -6038,7 +8231,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -6047,17 +8240,17 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.71</v>
+        <v>-0.71</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.1207</v>
+        <v>-0.1207</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -6066,7 +8259,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -6075,7 +8268,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -6084,7 +8277,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -6093,7 +8286,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -6112,7 +8305,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -6124,7 +8317,7 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0.13999999999999999</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>82</v>
@@ -6132,7 +8325,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -6147,12 +8340,12 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -6160,19 +8353,19 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -6180,19 +8373,19 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -6207,12 +8400,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -6221,7 +8414,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -6230,7 +8423,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6239,7 +8432,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -6258,7 +8451,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -6276,7 +8469,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +8487,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -6312,7 +8505,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -6330,7 +8523,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="9600" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="20 02 2017" sheetId="3" r:id="rId1"/>
@@ -19,18 +19,17 @@
     <sheet name="24 02 2017" sheetId="8" r:id="rId5"/>
     <sheet name="27 02 2017" sheetId="9" r:id="rId6"/>
     <sheet name="28 02 2017" sheetId="11" r:id="rId7"/>
-    <sheet name="Feuil1" sheetId="18" r:id="rId8"/>
-    <sheet name="01 03 2017" sheetId="12" r:id="rId9"/>
-    <sheet name="02 03 2017" sheetId="13" r:id="rId10"/>
-    <sheet name="03 03 2017" sheetId="14" r:id="rId11"/>
-    <sheet name="06 03 2017" sheetId="15" r:id="rId12"/>
-    <sheet name="07 03 2017" sheetId="16" r:id="rId13"/>
-    <sheet name="08 03 2017" sheetId="17" r:id="rId14"/>
-    <sheet name="09 03 2017" sheetId="19" r:id="rId15"/>
-    <sheet name="10 03 2017" sheetId="20" r:id="rId16"/>
-    <sheet name="13 03 2017" sheetId="21" r:id="rId17"/>
-    <sheet name="14 03 2017" sheetId="22" r:id="rId18"/>
-    <sheet name="15 03 2017" sheetId="23" r:id="rId19"/>
+    <sheet name="01 03 2017" sheetId="12" r:id="rId8"/>
+    <sheet name="02 03 2017" sheetId="13" r:id="rId9"/>
+    <sheet name="03 03 2017" sheetId="14" r:id="rId10"/>
+    <sheet name="06 03 2017" sheetId="15" r:id="rId11"/>
+    <sheet name="07 03 2017" sheetId="16" r:id="rId12"/>
+    <sheet name="08 03 2017" sheetId="17" r:id="rId13"/>
+    <sheet name="09 03 2017" sheetId="19" r:id="rId14"/>
+    <sheet name="10 03 2017" sheetId="20" r:id="rId15"/>
+    <sheet name="13 03 2017" sheetId="21" r:id="rId16"/>
+    <sheet name="14 03 2017" sheetId="22" r:id="rId17"/>
+    <sheet name="15 03 2017" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
@@ -1053,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +1095,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32090000000000007</v>
+        <v>7.7800000000000036E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1148,11 +1147,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.57999999999999996</v>
+        <v>-0.85</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8600000000000007E-2</v>
+        <v>-0.14450000000000002</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1506,7 +1505,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.3500000000000012E-2</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1518,16 +1517,16 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>0.108</v>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1558,11 +1557,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.99</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.16830000000000001</v>
+        <v>6.1200000000000004E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>0.13999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>82</v>
@@ -1651,14 +1650,14 @@
         <v>0.2</v>
       </c>
       <c r="C12" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1671,11 +1670,11 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>0.13999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>87</v>
@@ -1711,14 +1710,14 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -1866,415 +1865,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="14.453125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="21">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>0.15730000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="21">
-        <f>SUM(D11:D15)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D3" s="21">
-        <f>B3*C3</f>
-        <v>0.12600000000000003</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="21">
-        <f>SUM(D20:D24)</f>
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D4" s="21">
-        <f>B4*C4</f>
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="21">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.25</v>
-      </c>
-      <c r="D5" s="21">
-        <f ca="1">B5*C5</f>
-        <v>-4.2500000000000003E-2</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <f>B11*C13</f>
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21">
-        <f>B12*C12</f>
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="21">
-        <f>B13*C13</f>
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="21">
-        <f>B14*C14</f>
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="21">
-        <f>B15*C15</f>
-        <v>0.06</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-0.44</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>-8.8000000000000009E-2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2324,7 +1914,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.5400000000000025E-2</v>
+        <v>0.25680000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2376,11 +1966,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.82</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.1394</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2683,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2733,7 +2323,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.13200000000000001</v>
+        <v>0.21700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2785,11 +2375,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>3.5700000000000003E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3092,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3142,7 +2732,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.1244</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3194,11 +2784,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.02</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-3.4000000000000002E-3</v>
+        <v>4.760000000000001E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3494,6 +3084,450 @@
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>6.1900000000000004E-2</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-1.1900000000000003E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3505,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3584,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.19450000000000001</v>
+        <v>1.0900000000000007E-2</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3608,11 +3642,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.71</v>
+        <v>-0.37</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.1207</v>
+        <v>-6.2899999999999998E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3692,7 +3726,9 @@
       <c r="B11" s="19">
         <v>0.2</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
         <v>0</v>
@@ -3710,7 +3746,9 @@
       <c r="B12" s="19">
         <v>0.2</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
         <v>0</v>
@@ -3728,7 +3766,9 @@
       <c r="B13" s="19">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
         <v>0</v>
@@ -3746,7 +3786,9 @@
       <c r="B14" s="19">
         <v>0.2</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
         <v>0</v>
@@ -3764,7 +3806,9 @@
       <c r="B15" s="19">
         <v>0.2</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
         <v>0</v>
@@ -3932,6 +3976,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3940,7 +3985,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3984,7 +4029,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.14860000000000001</v>
+        <v>7.0000000000000617E-4</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -4042,11 +4087,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>7.4800000000000005E-2</v>
+        <v>-7.3099999999999998E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -4126,7 +4171,9 @@
       <c r="B11" s="19">
         <v>0.2</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
         <v>0</v>
@@ -4144,7 +4191,9 @@
       <c r="B12" s="19">
         <v>0.2</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
         <v>0</v>
@@ -4162,7 +4211,9 @@
       <c r="B13" s="19">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
         <v>0</v>
@@ -4180,7 +4231,9 @@
       <c r="B14" s="19">
         <v>0.2</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
         <v>0</v>
@@ -4198,7 +4251,9 @@
       <c r="B15" s="19">
         <v>0.2</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
         <v>0</v>
@@ -4374,7 +4429,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4418,7 +4473,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>3.3000000000000002E-2</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -4476,11 +4531,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.24</v>
+        <v>0.71</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-4.0800000000000003E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -4560,7 +4615,9 @@
       <c r="B11" s="19">
         <v>0.2</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
         <v>0</v>
@@ -4578,7 +4635,9 @@
       <c r="B12" s="19">
         <v>0.2</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
         <v>0</v>
@@ -4596,7 +4655,9 @@
       <c r="B13" s="19">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
         <v>0</v>
@@ -4614,7 +4675,9 @@
       <c r="B14" s="19">
         <v>0.2</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
         <v>0</v>
@@ -4632,7 +4695,9 @@
       <c r="B15" s="19">
         <v>0.2</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
         <v>0</v>
@@ -4808,14 +4873,14 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -4852,7 +4917,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11630000000000001</v>
+        <v>0.1724</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -4910,11 +4975,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.25</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>4.2500000000000003E-2</v>
+        <v>9.8600000000000007E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -4994,7 +5059,9 @@
       <c r="B11" s="19">
         <v>0.2</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
         <v>0</v>
@@ -5012,7 +5079,9 @@
       <c r="B12" s="19">
         <v>0.2</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
       <c r="D12" s="21">
         <f>B12*C12</f>
         <v>0</v>
@@ -5030,7 +5099,9 @@
       <c r="B13" s="19">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
         <v>0</v>
@@ -5048,7 +5119,9 @@
       <c r="B14" s="19">
         <v>0.2</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
         <v>0</v>
@@ -5066,441 +5139,9 @@
       <c r="B15" s="19">
         <v>0.2</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21">
-        <f>B15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-0.44</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>-8.8000000000000009E-2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="21">
-        <f ca="1">SUM(D2:D5)</f>
-        <v>-1.6300000000000009E-2</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C3" s="21">
-        <f>SUM(D11:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <f>B3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C4" s="21">
-        <f>SUM(D20:D24)</f>
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D4" s="21">
-        <f>B4*C4</f>
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="21">
-        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.53</v>
-      </c>
-      <c r="D5" s="21">
-        <f ca="1">B5*C5</f>
-        <v>-9.0100000000000013E-2</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="21">
-        <f>B11*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21">
-        <f>B12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21">
-        <f>B13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21">
-        <f>B14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
       <c r="D15" s="21">
         <f>B15*C15</f>
         <v>0</v>
@@ -5718,7 +5359,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="7">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.12310000000000001</v>
+        <v>0.19790000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5770,11 +5411,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.28999999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9300000000000004E-2</v>
+        <v>0.1241</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6125,7 +5766,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.2100000000000027E-2</v>
+        <v>-6.599999999999967E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6177,11 +5818,11 @@
       </c>
       <c r="C5" s="6">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.76</v>
+        <v>-0.87</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12920000000000001</v>
+        <v>-0.1479</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6535,7 +6176,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.8100000000000005E-2</v>
+        <v>2.7999999999999969E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6587,11 +6228,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.46</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-7.8200000000000006E-2</v>
+        <v>-9.3500000000000014E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -6945,7 +6586,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11770000000000001</v>
+        <v>1.4000000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6997,11 +6638,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>0.15640000000000001</v>
+        <v>5.2700000000000004E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7355,7 +6996,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32450000000000001</v>
+        <v>0.30410000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7407,11 +7048,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.84</v>
+        <v>-0.96</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.14280000000000001</v>
+        <v>-0.16320000000000001</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -7765,7 +7406,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>3.7600000000000036E-2</v>
+        <v>0.21950000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7817,11 +7458,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.61</v>
+        <v>0.46</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.1037</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -8127,12 +7768,408 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="21">
+        <f>SUM(D11:D15)</f>
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="21">
+        <f>B3*C3</f>
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="21">
+        <f ca="1">RANDBETWEEN(-100,100) / 100</f>
+        <v>-0.71</v>
+      </c>
+      <c r="D5" s="21">
+        <f ca="1">B5*C5</f>
+        <v>-0.1207</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11*C13</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="21">
+        <f>B12*C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="21">
+        <f>B13*C13</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D24" si="0">B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8188,7 +8225,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="21">
         <f ca="1">SUM(D2:D5)</f>
-        <v>1.1599999999999999E-2</v>
+        <v>0.21240000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8200,16 +8237,16 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(D11:D15)</f>
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="D3" s="21">
         <f>B3*C3</f>
-        <v>5.8500000000000003E-2</v>
+        <v>0.108</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8240,11 +8277,11 @@
       </c>
       <c r="C5" s="21">
         <f ca="1">RANDBETWEEN(-100,100) / 100</f>
-        <v>-0.71</v>
+        <v>0.18</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">B5*C5</f>
-        <v>-0.1207</v>
+        <v>3.0600000000000002E-2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -8317,7 +8354,7 @@
       </c>
       <c r="D11" s="21">
         <f>B11*C13</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>82</v>
@@ -8340,7 +8377,7 @@
         <v>0.1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -8353,14 +8390,14 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="20">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="21">
         <f>B13*C13</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8373,14 +8410,14 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="21">
         <f>B14*C14</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -8400,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="20 02 2017" sheetId="1" r:id="rId4"/>
-    <sheet name="21 02 2017" sheetId="2" r:id="rId5"/>
-    <sheet name="22 02 2017" sheetId="3" r:id="rId6"/>
-    <sheet name="23 02 2017" sheetId="4" r:id="rId7"/>
-    <sheet name="24 02 2017" sheetId="5" r:id="rId8"/>
-    <sheet name="27 02 2017" sheetId="6" r:id="rId9"/>
-    <sheet name="28 02 2017" sheetId="7" r:id="rId10"/>
-    <sheet name="01 03 2017" sheetId="8" r:id="rId11"/>
-    <sheet name="02 03 2017" sheetId="9" r:id="rId12"/>
-    <sheet name="03 03 2017" sheetId="10" r:id="rId13"/>
-    <sheet name="06 03 2017" sheetId="11" r:id="rId14"/>
-    <sheet name="07 03 2017" sheetId="12" r:id="rId15"/>
-    <sheet name="08 03 2017" sheetId="13" r:id="rId16"/>
-    <sheet name="09 03 2017" sheetId="14" r:id="rId17"/>
-    <sheet name="10 03 2017" sheetId="15" r:id="rId18"/>
-    <sheet name="13 03 2017" sheetId="16" r:id="rId19"/>
-    <sheet name="14 03 2017" sheetId="17" r:id="rId20"/>
-    <sheet name="15 03 2017" sheetId="18" r:id="rId21"/>
+    <sheet name="20 02 2017" sheetId="1" r:id="rId1"/>
+    <sheet name="21 02 2017" sheetId="2" r:id="rId2"/>
+    <sheet name="22 02 2017" sheetId="3" r:id="rId3"/>
+    <sheet name="23 02 2017" sheetId="4" r:id="rId4"/>
+    <sheet name="24 02 2017" sheetId="5" r:id="rId5"/>
+    <sheet name="27 02 2017" sheetId="6" r:id="rId6"/>
+    <sheet name="28 02 2017" sheetId="7" r:id="rId7"/>
+    <sheet name="01 03 2017" sheetId="8" r:id="rId8"/>
+    <sheet name="02 03 2017" sheetId="9" r:id="rId9"/>
+    <sheet name="03 03 2017" sheetId="10" r:id="rId10"/>
+    <sheet name="06 03 2017" sheetId="11" r:id="rId11"/>
+    <sheet name="07 03 2017" sheetId="12" r:id="rId12"/>
+    <sheet name="08 03 2017" sheetId="13" r:id="rId13"/>
+    <sheet name="09 03 2017" sheetId="14" r:id="rId14"/>
+    <sheet name="10 03 2017" sheetId="15" r:id="rId15"/>
+    <sheet name="13 03 2017" sheetId="16" r:id="rId16"/>
+    <sheet name="14 03 2017" sheetId="17" r:id="rId17"/>
+    <sheet name="15 03 2017" sheetId="18" r:id="rId18"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="100">
   <si>
     <t>Critère</t>
   </si>
@@ -38,7 +46,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -52,7 +60,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -81,7 +89,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -406,28 +414,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -438,10 +433,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -557,191 +558,175 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -943,7 +928,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -962,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,9 +1198,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1232,7 +1223,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1251,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,9 +1489,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1514,7 +1511,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1533,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1771,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,55 +1781,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -1848,70 +1847,70 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
-        <v>0.05740000000000003</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="6">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.21380000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
-        <v>0.6600000000000001</v>
+        <v>0.66000000000000014</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
-        <v>0.1485</v>
+        <v>0.14850000000000005</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.97</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.05</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>-0.1649</v>
+        <f ca="1">B5*C5</f>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1920,7 +1919,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1929,7 +1928,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1938,7 +1937,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1947,27 +1946,27 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7">
@@ -1980,14 +1979,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -2000,14 +1999,14 @@
         <f>B12*C12</f>
         <v>0.2</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
@@ -2020,14 +2019,14 @@
         <f>B13*C13</f>
         <v>0.2</v>
       </c>
-      <c r="E13" t="s" s="6">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
@@ -2040,14 +2039,14 @@
         <f>B14*C14</f>
         <v>0.2</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -2060,13 +2059,13 @@
         <f>B15*C15</f>
         <v>0.06</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -2075,7 +2074,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2084,7 +2083,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2093,27 +2092,27 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -2124,14 +2123,14 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -2142,14 +2141,14 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -2160,14 +2159,14 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -2178,14 +2177,14 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -2196,15 +2195,16 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2212,44 +2212,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="38" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="38" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -2265,70 +2258,70 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.1981</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.33070000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.126</v>
+        <v>0.12600000000000003</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.01</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.77</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>-0.0017</v>
+        <f ca="1">B5*C5</f>
+        <v>0.13090000000000002</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2337,7 +2330,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2346,7 +2339,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -2355,7 +2348,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2364,27 +2357,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -2397,14 +2390,14 @@
         <f>B11*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -2417,14 +2410,14 @@
         <f>B12*C12</f>
         <v>0.2</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -2437,14 +2430,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -2457,14 +2450,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -2477,13 +2470,13 @@
         <f>B15*C15</f>
         <v>0.06</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -2492,7 +2485,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2501,7 +2494,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2510,27 +2503,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -2541,14 +2534,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -2559,14 +2552,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -2577,14 +2570,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -2595,14 +2588,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -2613,15 +2606,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2629,44 +2623,37 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="39" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="39" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -2682,70 +2669,70 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.1616</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.14460000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
-        <v>0.36</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.08100000000000002</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.04</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.06</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>0.0068</v>
+        <f ca="1">B5*C5</f>
+        <v>-1.0200000000000001E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2754,7 +2741,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2763,7 +2750,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -2772,7 +2759,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2781,27 +2768,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -2814,14 +2801,14 @@
         <f>B11*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -2834,14 +2821,14 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -2854,14 +2841,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -2874,14 +2861,14 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -2892,15 +2879,15 @@
       </c>
       <c r="D15" s="25">
         <f>B15*C15</f>
-        <v>0.16</v>
-      </c>
-      <c r="E15" t="s" s="23">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -2909,7 +2896,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2918,7 +2905,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2927,27 +2914,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -2958,14 +2945,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -2976,14 +2963,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -2994,14 +2981,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -3012,14 +2999,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -3030,15 +3017,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3046,44 +3034,37 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="40" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="40" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -3099,16 +3080,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.1473</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>-7.3999999999999899E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -3116,53 +3097,53 @@
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.0225</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.3</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.61</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>0.051</v>
+        <f ca="1">B5*C5</f>
+        <v>-0.1037</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3171,7 +3152,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3180,7 +3161,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -3189,7 +3170,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -3198,27 +3179,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -3231,14 +3212,14 @@
         <f>B11*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -3251,14 +3232,14 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -3271,14 +3252,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -3291,14 +3272,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -3311,13 +3292,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -3326,7 +3307,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -3335,7 +3316,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3344,27 +3325,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -3375,14 +3356,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -3393,14 +3374,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -3411,14 +3392,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -3429,14 +3410,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -3447,15 +3428,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3463,44 +3445,37 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="41" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="41" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="41" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="41" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="41" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -3516,16 +3491,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.1278</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.21110000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -3533,53 +3508,53 @@
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.49</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>0</v>
+        <f ca="1">B5*C5</f>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3588,7 +3563,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3597,7 +3572,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -3606,7 +3581,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -3615,27 +3590,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -3648,14 +3623,14 @@
         <f>B11*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -3668,14 +3643,14 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -3688,14 +3663,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -3708,14 +3683,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -3726,15 +3701,15 @@
       </c>
       <c r="D15" s="25">
         <f>B15*C15</f>
-        <v>0.14</v>
-      </c>
-      <c r="E15" t="s" s="23">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -3743,7 +3718,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -3752,7 +3727,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3761,27 +3736,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -3792,14 +3767,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -3810,14 +3785,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -3828,14 +3803,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -3846,14 +3821,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -3864,15 +3839,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3880,48 +3856,41 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="42" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="42" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="42" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="42" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="42" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="42" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -3937,46 +3906,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.12409999999999999</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
+        <v>1.7999999999999992E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3984,20 +3956,20 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.83</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.19</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>0.1411</v>
+        <f ca="1">B5*C5</f>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4005,7 +3977,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4016,7 +3988,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4027,7 +3999,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4038,7 +4010,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4049,20 +4021,20 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -4070,8 +4042,8 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10">
@@ -4082,8 +4054,9 @@
       </c>
       <c r="D11" s="10">
         <f>B11*C13</f>
-      </c>
-      <c r="E11" t="s" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="4"/>
@@ -4091,8 +4064,8 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -4105,7 +4078,7 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4"/>
@@ -4113,20 +4086,21 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" s="45" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9">
         <f>B13*C13</f>
-      </c>
-      <c r="E13" t="s" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="4"/>
@@ -4134,8 +4108,8 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
@@ -4148,7 +4122,7 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="4"/>
@@ -4156,8 +4130,8 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -4170,7 +4144,7 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="4"/>
@@ -4178,7 +4152,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -4189,7 +4163,7 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4200,7 +4174,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4211,20 +4185,20 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -4232,8 +4206,8 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -4244,7 +4218,7 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4252,8 +4226,8 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -4264,7 +4238,7 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4272,8 +4246,8 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -4284,7 +4258,7 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4292,8 +4266,8 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -4304,7 +4278,7 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4312,8 +4286,8 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -4324,7 +4298,7 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4333,8 +4307,9 @@
       <c r="I24" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4342,48 +4317,41 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="46" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="46" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="46" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="46" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="46" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="46" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -4399,46 +4367,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.40850000000000003</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
+        <v>0.8</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4446,20 +4417,20 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.42</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.91</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>-0.07140000000000001</v>
+        <f ca="1">B5*C5</f>
+        <v>0.1547</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4467,7 +4438,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4478,7 +4449,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4489,7 +4460,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4500,7 +4471,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4511,20 +4482,20 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -4532,20 +4503,21 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10">
         <v>0.2</v>
       </c>
-      <c r="C11" t="s" s="47">
+      <c r="C11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="10">
         <f>B11*C13</f>
-      </c>
-      <c r="E11" t="s" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="4"/>
@@ -4553,20 +4525,21 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
         <v>0.2</v>
       </c>
-      <c r="C12" t="s" s="45">
+      <c r="C12" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="9">
         <f>B12*C12</f>
-      </c>
-      <c r="E12" t="s" s="6">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="4"/>
@@ -4574,20 +4547,21 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" s="45" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="9">
         <f>B13*C13</f>
-      </c>
-      <c r="E13" t="s" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="4"/>
@@ -4595,20 +4569,21 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
         <v>0.2</v>
       </c>
-      <c r="C14" t="s" s="45">
+      <c r="C14" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="9">
         <f>B14*C14</f>
-      </c>
-      <c r="E14" t="s" s="6">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="4"/>
@@ -4616,8 +4591,8 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -4630,7 +4605,7 @@
         <f>B15*C15</f>
         <v>0.2</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="4"/>
@@ -4638,7 +4613,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -4649,7 +4624,7 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4660,7 +4635,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4671,20 +4646,20 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -4692,8 +4667,8 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -4704,7 +4679,7 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4712,8 +4687,8 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -4724,7 +4699,7 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4732,8 +4707,8 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -4744,7 +4719,7 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -4752,8 +4727,8 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -4764,7 +4739,7 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4772,8 +4747,8 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -4784,7 +4759,7 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4793,8 +4768,9 @@
       <c r="I24" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4802,48 +4778,41 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="48" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="48" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="48" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -4859,46 +4828,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.13850000000000001</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
+        <v>-0.4</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4906,20 +4878,20 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.49</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.91</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>0.0833</v>
+        <f ca="1">B5*C5</f>
+        <v>0.1547</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4927,7 +4899,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4938,7 +4910,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4949,7 +4921,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4960,7 +4932,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4971,20 +4943,20 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -4992,8 +4964,8 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10">
@@ -5004,8 +4976,9 @@
       </c>
       <c r="D11" s="10">
         <f>B11*C13</f>
-      </c>
-      <c r="E11" t="s" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="4"/>
@@ -5013,8 +4986,8 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -5027,7 +5000,7 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4"/>
@@ -5035,20 +5008,21 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" s="45" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="9">
         <f>B13*C13</f>
-      </c>
-      <c r="E13" t="s" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="4"/>
@@ -5056,8 +5030,8 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
@@ -5070,7 +5044,7 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="4"/>
@@ -5078,8 +5052,8 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -5092,7 +5066,7 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="4"/>
@@ -5100,7 +5074,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -5111,7 +5085,7 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5122,7 +5096,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5133,20 +5107,20 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -5154,8 +5128,8 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -5166,7 +5140,7 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5174,8 +5148,8 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -5186,7 +5160,7 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -5194,8 +5168,8 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -5206,7 +5180,7 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5214,8 +5188,8 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -5226,7 +5200,7 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5234,8 +5208,8 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -5246,7 +5220,7 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -5255,8 +5229,9 @@
       <c r="I24" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5264,48 +5239,41 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="49" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="49" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="49" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="49" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="49" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="49" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="49" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="49" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -5321,46 +5289,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.25540000000000002</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
+        <v>0.17999999999999997</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
+        <v>4.0499999999999994E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -5368,20 +5339,20 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.1</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.83</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>-0.017</v>
+        <f ca="1">B5*C5</f>
+        <v>0.1411</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -5389,7 +5360,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5400,7 +5371,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5411,7 +5382,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5422,7 +5393,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5433,20 +5404,20 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -5454,8 +5425,8 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10">
@@ -5466,8 +5437,9 @@
       </c>
       <c r="D11" s="10">
         <f>B11*C13</f>
-      </c>
-      <c r="E11" t="s" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="4"/>
@@ -5475,8 +5447,8 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -5489,7 +5461,7 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4"/>
@@ -5497,20 +5469,21 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="9">
         <f>B13*C13</f>
-      </c>
-      <c r="E13" t="s" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F13" s="4"/>
@@ -5518,20 +5491,21 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
         <v>0.2</v>
       </c>
-      <c r="C14" t="s" s="45">
+      <c r="C14" s="45" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="9">
         <f>B14*C14</f>
-      </c>
-      <c r="E14" t="s" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="4"/>
@@ -5539,8 +5513,8 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -5553,7 +5527,7 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="4"/>
@@ -5561,7 +5535,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -5572,7 +5546,7 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5583,7 +5557,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5594,20 +5568,20 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -5615,8 +5589,8 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -5627,7 +5601,7 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5635,8 +5609,8 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -5647,7 +5621,7 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -5655,8 +5629,8 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -5667,7 +5641,7 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5675,8 +5649,8 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -5687,7 +5661,7 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5695,8 +5669,8 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -5707,7 +5681,7 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -5716,8 +5690,9 @@
       <c r="I24" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5725,48 +5700,41 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="50" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="50" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="50" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="50" customWidth="1"/>
-    <col min="6" max="6" width="10.8516" style="50" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="50" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="50" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="50" customWidth="1"/>
-    <col min="10" max="256" width="10.8516" style="50" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -5782,46 +5750,49 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.25980000000000003</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
+        <v>0.26</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -5829,20 +5800,20 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.89</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.75</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>-0.1513</v>
+        <f ca="1">B5*C5</f>
+        <v>0.1275</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -5850,7 +5821,7 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5861,7 +5832,7 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5872,7 +5843,7 @@
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5883,7 +5854,7 @@
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5894,20 +5865,20 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
@@ -5915,8 +5886,8 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10">
@@ -5927,8 +5898,9 @@
       </c>
       <c r="D11" s="10">
         <f>B11*C13</f>
-      </c>
-      <c r="E11" t="s" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="4"/>
@@ -5936,20 +5908,21 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
         <v>0.2</v>
       </c>
-      <c r="C12" t="s" s="45">
+      <c r="C12" s="45" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="9">
         <f>B12*C12</f>
-      </c>
-      <c r="E12" t="s" s="6">
+        <v>-0.13999999999999999</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4"/>
@@ -5957,20 +5930,21 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="9">
         <f>B13*C13</f>
-      </c>
-      <c r="E13" t="s" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="4"/>
@@ -5978,20 +5952,21 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
         <v>0.2</v>
       </c>
-      <c r="C14" t="s" s="45">
+      <c r="C14" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="9">
         <f>B14*C14</f>
-      </c>
-      <c r="E14" t="s" s="6">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="4"/>
@@ -5999,8 +5974,8 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -6013,7 +5988,7 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="4"/>
@@ -6021,7 +5996,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -6032,7 +6007,7 @@
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6043,7 +6018,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6054,20 +6029,20 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -6075,8 +6050,8 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -6087,7 +6062,7 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -6095,8 +6070,8 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -6107,7 +6082,7 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6115,8 +6090,8 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -6127,7 +6102,7 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -6135,8 +6110,8 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -6147,7 +6122,7 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -6155,8 +6130,8 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -6167,7 +6142,7 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -6176,8 +6151,9 @@
       <c r="I24" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6185,44 +6161,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="16" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="16" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -6238,16 +6207,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
-        <v>0.2149</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="6">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.16900000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
@@ -6259,49 +6228,49 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.83</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>0.1411</v>
+        <f ca="1">B5*C5</f>
+        <v>9.5200000000000021E-2</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6310,7 +6279,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6319,7 +6288,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6328,7 +6297,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6337,27 +6306,27 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7">
@@ -6370,14 +6339,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -6390,14 +6359,14 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
@@ -6410,14 +6379,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="6">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
@@ -6430,14 +6399,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -6450,13 +6419,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -6465,7 +6434,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6474,7 +6443,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6483,27 +6452,27 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -6514,14 +6483,14 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -6532,14 +6501,14 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -6550,14 +6519,14 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -6568,14 +6537,14 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -6586,15 +6555,16 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6602,44 +6572,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="17" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="17" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
@@ -6655,70 +6618,70 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="10">
-        <f>SUM(D2:D5)</f>
-        <v>0.1447000000000001</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="6">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>4.7800000000000023E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="11">
         <f>SUM(D11:D15)</f>
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D3" s="10">
         <f>B3*C3</f>
-        <v>0.06750000000000002</v>
+        <v>6.7500000000000018E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="10">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="10">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10">
         <v>0.17</v>
       </c>
       <c r="C5" s="10">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.02</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D5" s="10">
-        <f>B5*C5</f>
-        <v>0.0034</v>
+        <f ca="1">B5*C5</f>
+        <v>-9.3500000000000014E-2</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6727,7 +6690,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6736,7 +6699,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6745,7 +6708,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6754,27 +6717,27 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7">
@@ -6787,14 +6750,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="7">
@@ -6807,14 +6770,14 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7">
@@ -6827,14 +6790,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="6">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7">
@@ -6847,14 +6810,14 @@
         <f>B14*C14</f>
         <v>0.2</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -6867,13 +6830,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12"/>
@@ -6882,7 +6845,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6891,7 +6854,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6900,27 +6863,27 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="10">
@@ -6931,14 +6894,14 @@
       </c>
       <c r="D20" s="10">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="10">
@@ -6949,14 +6912,14 @@
       </c>
       <c r="D21" s="10">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="10">
@@ -6967,14 +6930,14 @@
       </c>
       <c r="D22" s="10">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7">
@@ -6985,14 +6948,14 @@
       </c>
       <c r="D23" s="9">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
@@ -7003,15 +6966,16 @@
       </c>
       <c r="D24" s="9">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7019,44 +6983,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="18" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="18" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -7072,16 +7029,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.2527</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.1507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -7089,53 +7046,53 @@
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.0225</v>
+        <v>2.2500000000000003E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.92</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.32</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>0.1564</v>
+        <f ca="1">B5*C5</f>
+        <v>5.4400000000000004E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -7144,7 +7101,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -7153,7 +7110,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7162,7 +7119,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -7171,27 +7128,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="24">
@@ -7204,14 +7161,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -7224,14 +7181,14 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -7244,14 +7201,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -7264,14 +7221,14 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -7284,13 +7241,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -7299,7 +7256,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7308,7 +7265,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -7317,27 +7274,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -7348,14 +7305,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -7366,14 +7323,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -7384,14 +7341,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -7402,14 +7359,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -7420,15 +7377,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7436,44 +7394,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="32" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="32" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="32" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="32" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -7489,16 +7440,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>-0.0506</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>1.7400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -7510,49 +7461,49 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.07000000000000001</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.33</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>-0.0119</v>
+        <f ca="1">B5*C5</f>
+        <v>5.6100000000000004E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -7561,7 +7512,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -7570,7 +7521,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7579,7 +7530,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -7588,27 +7539,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="24">
@@ -7621,14 +7572,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -7641,14 +7592,14 @@
         <f>B12*C12</f>
         <v>-0.2</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -7661,14 +7612,14 @@
         <f>B13*C13</f>
         <v>-0.2</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -7681,14 +7632,14 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -7701,13 +7652,13 @@
         <f>B15*C15</f>
         <v>-0.1</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -7716,7 +7667,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7725,7 +7676,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -7734,27 +7685,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -7765,14 +7716,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -7783,14 +7734,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -7801,14 +7752,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -7819,14 +7770,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -7837,15 +7788,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7853,44 +7805,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="33" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="33" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -7906,16 +7851,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.2973</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.32620000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -7923,53 +7868,53 @@
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.0135</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-1</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.83</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>-0.17</v>
+        <f ca="1">B5*C5</f>
+        <v>-0.1411</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -7978,7 +7923,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -7987,7 +7932,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -7996,7 +7941,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -8005,27 +7950,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="24">
@@ -8038,14 +7983,14 @@
         <f>B11*C11</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -8058,14 +8003,14 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -8078,14 +8023,14 @@
         <f>B13*C13</f>
         <v>-0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -8098,14 +8043,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -8118,13 +8063,13 @@
         <f>B15*C15</f>
         <v>0.06</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -8133,7 +8078,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -8142,7 +8087,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -8151,27 +8096,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -8182,14 +8127,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -8200,14 +8145,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -8218,14 +8163,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -8236,14 +8181,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -8254,15 +8199,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8270,44 +8216,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="34" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="34" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -8323,70 +8262,70 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.06480000000000002</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>5.4600000000000024E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.06750000000000002</v>
+        <v>6.7500000000000018E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.45</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.51</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>-0.07650000000000001</v>
+        <f ca="1">B5*C5</f>
+        <v>-8.6700000000000013E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -8395,7 +8334,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -8404,7 +8343,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -8413,7 +8352,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -8422,27 +8361,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -8455,14 +8394,14 @@
         <f>B11*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E11" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -8475,14 +8414,14 @@
         <f>B12*C12</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -8495,14 +8434,14 @@
         <f>B13*C13</f>
         <v>0.1</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E13" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -8515,14 +8454,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -8535,13 +8474,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -8550,7 +8489,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -8559,7 +8498,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -8568,27 +8507,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -8599,14 +8538,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -8617,14 +8556,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -8635,14 +8574,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -8653,14 +8592,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -8671,15 +8610,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8687,44 +8627,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="36" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="36" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="36" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -8740,16 +8673,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.2054</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.25980000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -8757,53 +8690,53 @@
       </c>
       <c r="D3" s="26">
         <f>B3*C3</f>
-        <v>0.0585</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>0.43</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.75</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>0.0731</v>
+        <f ca="1">B5*C5</f>
+        <v>0.1275</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -8812,7 +8745,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -8821,7 +8754,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -8830,7 +8763,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -8839,27 +8772,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -8870,16 +8803,16 @@
       </c>
       <c r="D11" s="26">
         <f>B11*C13</f>
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="E11" t="s" s="23">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -8892,14 +8825,14 @@
         <f>B12*C12</f>
         <v>0.1</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -8910,16 +8843,16 @@
       </c>
       <c r="D13" s="25">
         <f>B13*C13</f>
-        <v>0.08000000000000002</v>
-      </c>
-      <c r="E13" t="s" s="23">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -8932,14 +8865,14 @@
         <f>B14*C14</f>
         <v>0</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -8952,13 +8885,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -8967,7 +8900,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -8976,7 +8909,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -8985,27 +8918,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -9016,14 +8949,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -9034,14 +8967,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -9052,14 +8985,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -9070,14 +9003,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -9088,15 +9021,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -9104,44 +9038,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="37" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="37" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="37" customWidth="1"/>
-    <col min="8" max="256" width="14.5" style="37" customWidth="1"/>
+    <col min="1" max="256" width="14.42578125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="19">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="19">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="20">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" t="s" s="22">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="24">
@@ -9157,16 +9084,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="26">
-        <f>SUM(D2:D5)</f>
-        <v>0.1563</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="23">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.11040000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C3" s="27">
         <f>SUM(D11:D15)</f>
@@ -9178,49 +9105,49 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s" s="23">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(D20:D24)</f>
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D4" s="26">
         <f>B4*C4</f>
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="23">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="26">
         <v>0.17</v>
       </c>
       <c r="C5" s="26">
-        <f>RANDBETWEEN(-100,100)/100</f>
-        <v>-0.15</v>
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>-0.42</v>
       </c>
       <c r="D5" s="26">
-        <f>B5*C5</f>
-        <v>-0.0255</v>
+        <f ca="1">B5*C5</f>
+        <v>-7.1400000000000005E-2</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9229,7 +9156,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -9238,7 +9165,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -9247,7 +9174,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -9256,27 +9183,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="19">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="23">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="26">
@@ -9287,16 +9214,16 @@
       </c>
       <c r="D11" s="26">
         <f>B11*C13</f>
-        <v>0.14</v>
-      </c>
-      <c r="E11" t="s" s="23">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="23">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="24">
@@ -9309,14 +9236,14 @@
         <f>B12*C12</f>
         <v>0.1</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="23">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="24">
@@ -9327,16 +9254,16 @@
       </c>
       <c r="D13" s="25">
         <f>B13*C13</f>
-        <v>0.14</v>
-      </c>
-      <c r="E13" t="s" s="23">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="23">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="24">
@@ -9349,14 +9276,14 @@
         <f>B14*C14</f>
         <v>0.1</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="23">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="24">
@@ -9369,13 +9296,13 @@
         <f>B15*C15</f>
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E15" s="23" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
@@ -9384,7 +9311,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -9393,7 +9320,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -9402,27 +9329,27 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="19">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s" s="19">
+      <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="23">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="26">
@@ -9433,14 +9360,14 @@
       </c>
       <c r="D20" s="26">
         <f>B20*C20</f>
-        <v>0.104</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="23">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="26">
@@ -9451,14 +9378,14 @@
       </c>
       <c r="D21" s="26">
         <f>B21*C21</f>
-        <v>-0.08800000000000001</v>
+        <v>-8.8000000000000009E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="23">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="26">
@@ -9469,14 +9396,14 @@
       </c>
       <c r="D22" s="26">
         <f>B22*C22</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="24">
@@ -9487,14 +9414,14 @@
       </c>
       <c r="D23" s="25">
         <f>B23*C23</f>
-        <v>0.08800000000000001</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="23">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="24">
@@ -9505,15 +9432,16 @@
       </c>
       <c r="D24" s="25">
         <f>B24*C24</f>
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/Sopra.xlsx
+++ b/data/Sopra.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Python\StockChooser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.smith.15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="24 02 2017" sheetId="5" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="13 03 2017" sheetId="16" r:id="rId12"/>
     <sheet name="14 03 2017" sheetId="17" r:id="rId13"/>
     <sheet name="15 03 2017" sheetId="18" r:id="rId14"/>
+    <sheet name="16 03 2017" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="95">
   <si>
     <t>Critère</t>
   </si>
@@ -326,12 +327,30 @@
   <si>
     <t>le RSI reste proche de la ligne 50</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>le MACD reste au dessus du signal</t>
+  </si>
+  <si>
+    <t>Le RSI depasse la ligne 70</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k est au dessus des autres courbes </t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -557,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1717,14 +1736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1761,10 +1780,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>-0.14750000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.13730000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1823,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -1813,17 +1832,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.64</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>-0.10880000000000001</v>
+        <v>-9.8600000000000007E-2</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1832,7 +1851,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1841,7 +1860,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1850,7 +1869,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1859,7 +1878,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1897,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1917,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -1918,7 +1937,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -1938,7 +1957,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1977,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1997,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -1987,7 +2006,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1996,7 +2015,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2005,7 +2024,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2024,7 +2043,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2061,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2079,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2097,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -2096,7 +2115,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -2132,12 +2151,12 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2177,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2176,12 +2195,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.11219999999999999</v>
+        <v>4.5899999999999989E-2</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2223,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2244,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2234,11 +2253,11 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.12</v>
+        <v>-0.27</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">B5*C5</f>
-        <v>2.0400000000000001E-2</v>
+        <v>-4.5900000000000003E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2246,7 +2265,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2257,7 +2276,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2268,7 +2287,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2279,7 +2298,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2290,7 +2309,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2330,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2333,7 +2352,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2355,7 +2374,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2396,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2418,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2440,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -2432,7 +2451,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2443,7 +2462,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2454,7 +2473,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2494,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2495,7 +2514,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2534,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2554,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2555,7 +2574,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2593,12 +2612,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2638,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2637,12 +2656,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.19770000000000001</v>
+        <v>0.40340000000000004</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2684,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2705,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2695,11 +2714,11 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.33</v>
+        <v>0.88</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">B5*C5</f>
-        <v>-5.6100000000000004E-2</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2707,7 +2726,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2718,7 +2737,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2729,7 +2748,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2740,7 +2759,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2751,7 +2770,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2772,7 +2791,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2794,7 +2813,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +2835,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2857,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2879,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2882,7 +2901,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -2893,7 +2912,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2904,7 +2923,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2915,7 +2934,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2936,7 +2955,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2975,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2976,7 +2995,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +3015,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -3016,7 +3035,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -3054,12 +3073,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3099,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3098,12 +3117,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>7.9000000000000015E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3145,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +3166,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3156,11 +3175,11 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">B5*C5</f>
-        <v>9.5200000000000021E-2</v>
+        <v>6.1200000000000004E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3168,7 +3187,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3179,7 +3198,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3190,7 +3209,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3201,7 +3220,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3212,7 +3231,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3252,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +3274,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3277,7 +3296,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3318,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -3321,7 +3340,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -3343,7 +3362,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -3354,7 +3373,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3365,7 +3384,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3376,7 +3395,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3397,7 +3416,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3436,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3456,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -3457,7 +3476,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -3477,7 +3496,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -3515,12 +3534,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3560,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3559,12 +3578,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>5.4800000000000001E-2</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +3606,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3627,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3617,11 +3636,11 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.35</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">B5*C5</f>
-        <v>-5.9499999999999997E-2</v>
+        <v>1.1900000000000003E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3629,7 +3648,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3640,7 +3659,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3651,7 +3670,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3662,7 +3681,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3673,7 +3692,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3713,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3735,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3738,7 +3757,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3760,7 +3779,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -3782,7 +3801,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -3804,7 +3823,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -3815,7 +3834,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3826,7 +3845,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3837,7 +3856,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3877,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -3878,7 +3897,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -3898,7 +3917,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -3918,7 +3937,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -3938,7 +3957,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -3973,15 +3992,15 @@
   <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4002,7 +4021,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4020,12 +4039,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.1153</v>
+        <v>0.1527</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4067,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4069,7 +4088,7 @@
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4078,11 +4097,11 @@
       </c>
       <c r="C5" s="9">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">B5*C5</f>
-        <v>-1.7000000000000001E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4090,7 +4109,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4101,7 +4120,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4112,7 +4131,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4123,7 +4142,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4134,7 +4153,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4155,7 +4174,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4177,7 +4196,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4199,7 +4218,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4221,7 +4240,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4262,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -4265,7 +4284,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -4276,7 +4295,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4287,7 +4306,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4298,7 +4317,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -4319,7 +4338,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -4339,7 +4358,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -4359,7 +4378,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -4379,7 +4398,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -4399,7 +4418,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -4429,18 +4448,471 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9">
+        <f ca="1">SUM(D2:D5)</f>
+        <v>0.24510000000000004</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3" s="10">
+        <f>SUM(D11:D15)</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3*C3</f>
+        <v>0.13050000000000003</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <f>SUM(D20:D24)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4*C4</f>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="9">
+        <f ca="1">RANDBETWEEN(-100,100)/100</f>
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="9">
+        <f ca="1">B5*C5</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f>B11*C13</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12*C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="8">
+        <f>B13*C13</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="8">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <f>B15*C15</f>
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="D20" s="9">
+        <f>B20*C20</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-0.44</v>
+      </c>
+      <c r="D21" s="9">
+        <f>B21*C21</f>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="9">
+        <f>B22*C22</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="D23" s="8">
+        <f>B23*C23</f>
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="D24" s="8">
+        <f>B24*C24</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4459,7 +4931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -4477,10 +4949,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.32110000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.52850000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -4501,7 +4973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -4520,7 +4992,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -4529,17 +5001,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.86</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>-0.1462</v>
+        <v>6.1200000000000004E-2</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4548,7 +5020,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -4557,7 +5029,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4566,7 +5038,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4575,7 +5047,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -4594,7 +5066,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +5086,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -4634,7 +5106,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -4654,7 +5126,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +5146,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -4694,7 +5166,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -4703,7 +5175,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -4712,7 +5184,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4721,7 +5193,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -4740,7 +5212,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +5230,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +5248,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -4794,7 +5266,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -4812,7 +5284,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -4846,12 +5318,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4870,7 +5342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -4888,10 +5360,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.25690000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.25010000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -4912,7 +5384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +5403,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -4940,17 +5412,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>0.11560000000000002</v>
+        <v>0.10880000000000001</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4959,7 +5431,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -4968,7 +5440,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4977,7 +5449,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4986,7 +5458,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -5005,7 +5477,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5025,7 +5497,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -5045,7 +5517,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -5065,7 +5537,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -5085,7 +5557,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -5105,7 +5577,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -5114,7 +5586,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5123,7 +5595,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5132,7 +5604,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -5151,7 +5623,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -5169,7 +5641,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -5187,7 +5659,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -5205,7 +5677,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -5223,7 +5695,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -5257,12 +5729,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5299,10 +5771,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.21560000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5323,7 +5795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -5342,7 +5814,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -5351,17 +5823,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.49</v>
+        <v>-0.74</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>8.3299999999999999E-2</v>
+        <v>-0.1258</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5370,7 +5842,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5379,7 +5851,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5388,7 +5860,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5397,7 +5869,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5888,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5436,7 +5908,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -5456,7 +5928,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -5476,7 +5948,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -5496,7 +5968,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -5516,7 +5988,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -5525,7 +5997,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5534,7 +6006,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5543,7 +6015,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -5562,7 +6034,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -5580,7 +6052,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -5598,7 +6070,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -5616,7 +6088,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -5634,7 +6106,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -5668,12 +6140,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5692,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -5710,10 +6182,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.33310000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.6000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -5734,7 +6206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -5753,7 +6225,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -5762,17 +6234,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.89</v>
+        <v>-0.74</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>0.15130000000000002</v>
+        <v>-0.1258</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5781,7 +6253,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5790,7 +6262,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5799,7 +6271,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5808,7 +6280,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -5827,7 +6299,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -5847,7 +6319,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -5867,7 +6339,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -5887,7 +6359,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +6379,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -5927,7 +6399,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -5936,7 +6408,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5945,7 +6417,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5954,7 +6426,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -5973,7 +6445,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -5991,7 +6463,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -6009,7 +6481,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -6027,7 +6499,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -6045,7 +6517,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -6079,12 +6551,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -6121,10 +6593,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.13520000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.18620000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -6145,7 +6617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -6164,7 +6636,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -6173,17 +6645,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.38</v>
+        <v>-0.08</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>-6.4600000000000005E-2</v>
+        <v>-1.3600000000000001E-2</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -6192,7 +6664,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6201,7 +6673,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -6210,7 +6682,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -6219,7 +6691,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -6238,7 +6710,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6258,7 +6730,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -6278,7 +6750,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -6298,7 +6770,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -6318,7 +6790,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -6338,7 +6810,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -6347,7 +6819,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -6356,7 +6828,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -6365,7 +6837,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6856,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -6402,7 +6874,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6892,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -6438,7 +6910,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -6456,7 +6928,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -6490,12 +6962,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6514,7 +6986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -6532,10 +7004,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.16500000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.15650000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -6556,7 +7028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -6575,7 +7047,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -6584,17 +7056,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>1.0200000000000001E-2</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -6603,7 +7075,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6612,7 +7084,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -6621,7 +7093,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -6630,7 +7102,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -6649,7 +7121,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +7141,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -6689,7 +7161,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -6709,7 +7181,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -6729,7 +7201,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -6749,7 +7221,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -6758,7 +7230,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -6767,7 +7239,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -6776,7 +7248,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -6795,7 +7267,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -6813,7 +7285,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -6831,7 +7303,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -6849,7 +7321,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -6867,7 +7339,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -6901,12 +7373,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +7397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -6943,10 +7415,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.25440000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -6967,7 +7439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -6986,7 +7458,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -6995,17 +7467,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>0.15810000000000002</v>
+        <v>5.6100000000000004E-2</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -7014,7 +7486,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -7023,7 +7495,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -7032,7 +7504,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -7041,7 +7513,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -7060,7 +7532,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -7080,7 +7552,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7572,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -7120,7 +7592,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -7140,7 +7612,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7632,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -7169,7 +7641,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7178,7 +7650,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -7187,7 +7659,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -7206,7 +7678,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -7224,7 +7696,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -7242,7 +7714,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -7260,7 +7732,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -7278,7 +7750,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -7312,12 +7784,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="14.42578125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7336,7 +7808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -7354,10 +7826,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="22">
         <f ca="1">SUM(D2:D5)</f>
-        <v>0.10569999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -7378,7 +7850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -7397,7 +7869,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -7406,17 +7878,17 @@
       </c>
       <c r="C5" s="22">
         <f ca="1">RANDBETWEEN(-100,100)/100</f>
-        <v>-0.13</v>
+        <v>-0.41</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">B5*C5</f>
-        <v>-2.2100000000000002E-2</v>
+        <v>-6.9699999999999998E-2</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -7425,7 +7897,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -7434,7 +7906,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -7443,7 +7915,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -7452,7 +7924,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -7471,7 +7943,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -7491,7 +7963,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -7511,7 +7983,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -7531,7 +8003,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -7551,7 +8023,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -7571,7 +8043,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
@@ -7580,7 +8052,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7589,7 +8061,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -7598,7 +8070,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -7617,7 +8089,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -7635,7 +8107,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -7653,7 +8125,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -7671,7 +8143,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -7689,7 +8161,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
